--- a/vertx-env/exec-toolkit/configuration/menu/zero-ambient/APP-80500-5900$-zero.bsm.notification-SIDE.xlsx
+++ b/vertx-env/exec-toolkit/configuration/menu/zero-ambient/APP-80500-5900$-zero.bsm.notification-SIDE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-env/exec-toolkit/configuration/menu/zero-ambient/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B461193-74A0-4A49-A6AE-5D397D9BCEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F71365D-DC47-1E4E-8F73-D9FA1090FB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45240" yWindow="7080" windowWidth="38400" windowHeight="18080" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45240" yWindow="7060" windowWidth="38400" windowHeight="18080" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -149,9 +149,6 @@
     <t>b1ce7243-a9f7-4fd4-9619-4f7e8a9d3bb8</t>
   </si>
   <si>
-    <t>0a8c3e34-d359-48ab-86af-17898c50a007</t>
-  </si>
-  <si>
     <t>zero.bsm.notification</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>zero.bsm.notification.manage</t>
+  </si>
+  <si>
+    <t>c10a78d2-2a2f-4a71-a553-291e2ab60879</t>
   </si>
 </sst>
 </file>
@@ -629,7 +629,7 @@
   <dimension ref="A2:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -735,7 +735,7 @@
         <v>33</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>23</v>
@@ -747,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>24</v>
@@ -778,7 +778,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>27</v>
@@ -808,7 +808,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>31</v>
